--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t xml:space="preserve">ФИО</t>
   </si>
@@ -34,16 +34,16 @@
     <t xml:space="preserve">0.3</t>
   </si>
   <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Горячко</t>
   </si>
   <si>
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Садеков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1</t>
+    <t xml:space="preserve">Садыков</t>
   </si>
   <si>
     <t xml:space="preserve">Плавунов</t>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t xml:space="preserve">Чернов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евдокимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костенко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алексеенко</t>
   </si>
 </sst>
 </file>
@@ -88,6 +97,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -109,6 +119,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,10 +190,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -197,6 +208,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -205,21 +219,30 @@
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -227,7 +250,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -235,7 +261,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,7 +272,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -253,6 +285,9 @@
       <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -261,13 +296,19 @@
       <c r="B9" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,7 +324,28 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t xml:space="preserve">ФИО</t>
   </si>
@@ -37,10 +37,10 @@
     <t xml:space="preserve">0.1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Горячко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
   </si>
   <si>
     <t xml:space="preserve">Садыков</t>
@@ -190,10 +190,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -211,6 +211,9 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -222,16 +225,22 @@
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -255,16 +264,22 @@
       <c r="C5" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -277,6 +292,9 @@
       <c r="C7" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="D7" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -286,7 +304,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,6 +362,9 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t xml:space="preserve">ФИО</t>
   </si>
@@ -190,10 +190,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -214,6 +214,9 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -242,6 +245,9 @@
       <c r="D3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -252,6 +258,9 @@
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t xml:space="preserve">ФИО</t>
   </si>
@@ -28,52 +28,49 @@
     <t xml:space="preserve">Бонусы</t>
   </si>
   <si>
+    <t xml:space="preserve">Test_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мамедов</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3</t>
+    <t xml:space="preserve">Горячко</t>
   </si>
   <si>
     <t xml:space="preserve">0.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Садыков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плавунов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гавришин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Громов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Касимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рызванова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Байдин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прошина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чернов</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Горячко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Садыков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Плавунов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гавришин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Громов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Касимов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рызвалова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Байдин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прошина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чернов</t>
   </si>
   <si>
     <t xml:space="preserve">Евдокимов</t>
@@ -190,15 +187,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -209,176 +208,137 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>5</v>
+      <c r="C2" s="0" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>5</v>
+      <c r="C3" s="0" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>5</v>
+      <c r="C6" s="0" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -189,8 +189,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -248,6 +248,9 @@
       <c r="C5" s="0" t="n">
         <v>5.5</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -323,6 +326,9 @@
       </c>
       <c r="C13" s="0" t="n">
         <v>3.3</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,66 +20,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">№</t>
+  </si>
   <si>
     <t xml:space="preserve">ФИО</t>
   </si>
   <si>
-    <t xml:space="preserve">Бонусы</t>
+    <t xml:space="preserve">Бонус</t>
   </si>
   <si>
     <t xml:space="preserve">Test_1</t>
   </si>
   <si>
+    <t xml:space="preserve">Алексеенко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Байдин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гавришин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горячко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Громов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евдокимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Касимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костенко</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мамедов</t>
   </si>
   <si>
-    <t xml:space="preserve">Горячко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1</t>
+    <t xml:space="preserve">Плавунов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прошина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рызванова</t>
   </si>
   <si>
     <t xml:space="preserve">Садыков</t>
   </si>
   <si>
-    <t xml:space="preserve">Плавунов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гавришин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Громов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Касимов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рызванова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Байдин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прошина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Чернов</t>
   </si>
   <si>
     <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Евдокимов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Костенко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алексеенко</t>
   </si>
 </sst>
 </file>
@@ -189,162 +195,220 @@
   </sheetPr>
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="AMH1" s="0"/>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>2</v>
+      </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2.6</v>
-      </c>
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
+      <c r="A3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>11</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>3.2</v>
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>2</v>
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">Евдокимов</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Касимов</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Плавунов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3</t>
   </si>
   <si>
     <t xml:space="preserve">Прошина</t>
@@ -167,8 +173,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -196,18 +206,18 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.62"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -223,10 +233,13 @@
       <c r="E1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -293,6 +306,9 @@
       <c r="D6" s="0" t="n">
         <v>2.8</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -310,13 +326,16 @@
       <c r="E7" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="F7" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4.4</v>
@@ -327,7 +346,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3.2</v>
@@ -338,7 +357,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>2.6</v>
@@ -349,13 +368,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5.5</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,10 +385,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
@@ -377,10 +399,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>4.9</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -388,7 +413,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>3.9</v>
@@ -399,10 +424,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>4.9</v>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">Садыков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3</t>
   </si>
   <si>
     <t xml:space="preserve">Чернов</t>
@@ -206,12 +209,12 @@
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
@@ -370,6 +373,9 @@
       <c r="B11" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="C11" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="0" t="n">
         <v>5.5</v>
       </c>
@@ -418,22 +424,28 @@
       <c r="D14" s="0" t="n">
         <v>3.9</v>
       </c>
+      <c r="F14" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>4.9</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -34,6 +34,21 @@
     <t xml:space="preserve">Test_1</t>
   </si>
   <si>
+    <t xml:space="preserve">Test_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zachet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итог</t>
+  </si>
+  <si>
     <t xml:space="preserve">Алексеенко</t>
   </si>
   <si>
@@ -43,12 +58,6 @@
     <t xml:space="preserve">Гавришин</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Горячко</t>
   </si>
   <si>
@@ -58,24 +67,15 @@
     <t xml:space="preserve">Евдокимов</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Касимов</t>
   </si>
   <si>
     <t xml:space="preserve">Костенко</t>
   </si>
   <si>
-    <t xml:space="preserve">Мамедов</t>
-  </si>
-  <si>
     <t xml:space="preserve">Плавунов</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Прошина</t>
   </si>
   <si>
@@ -88,13 +88,7 @@
     <t xml:space="preserve">Садыков</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Чернов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
   </si>
 </sst>
 </file>
@@ -104,12 +98,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+  <fonts count="17">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -128,21 +121,145 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -150,8 +267,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,8 +307,59 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -185,19 +368,100 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -206,18 +470,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -234,10 +503,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
@@ -247,13 +525,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="0"/>
+      <c r="E2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <f aca="false">AVERAGE(D2:F2)</f>
+        <v>3.66666666666667</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <f aca="false">0.4*G2+0.6*H2</f>
+        <v>4.46666666666667</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
@@ -262,10 +559,30 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <f aca="false">AVERAGE(D3:F3)</f>
+        <v>4.33333333333333</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">0.4*G3+0.6*H3</f>
+        <v>4.13333333333333</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,16 +590,30 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>5.4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <f aca="false">AVERAGE(D4:F4)</f>
+        <v>5.13333333333333</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">0.4*G4+0.6*H4</f>
+        <v>5.05333333333333</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -290,13 +621,30 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>4.9</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <f aca="false">AVERAGE(D5:F5)</f>
+        <v>4.93333333333333</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">0.4*G5+0.6*H5</f>
+        <v>4.97333333333333</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -304,13 +652,30 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>7</v>
+        <v>2.9</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <f aca="false">AVERAGE(D6:F6)</f>
+        <v>3.96666666666667</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">0.4*G6+0.6*H6</f>
+        <v>4.28666666666667</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -318,19 +683,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>12</v>
+      <c r="E7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <f aca="false">AVERAGE(D7:F7)</f>
+        <v>4.1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">0.4*G7+0.6*H7</f>
+        <v>4.34</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,114 +714,210 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4.4</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <f aca="false">AVERAGE(D8:F8)</f>
+        <v>4.46666666666667</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <f aca="false">0.4*G8+0.6*H8</f>
+        <v>4.18666666666667</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>14</v>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3.2</v>
       </c>
+      <c r="E9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <f aca="false">AVERAGE(D9:F9)</f>
+        <v>3.73333333333333</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">0.4*G9+0.6*H9</f>
+        <v>3.59333333333333</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <f aca="false">AVERAGE(D10:F10)</f>
+        <v>5.53333333333333</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">0.4*G10+0.6*H10</f>
+        <v>5.21333333333334</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <f aca="false">AVERAGE(D11:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">0.4*G11+0.6*H11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <f aca="false">AVERAGE(D12:F12)</f>
+        <v>3.73333333333333</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <f aca="false">0.4*G12+0.6*H12</f>
+        <v>4.49333333333333</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>7</v>
+        <v>3.6</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <f aca="false">AVERAGE(D13:F13)</f>
+        <v>4.2</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <f aca="false">0.4*G13+0.6*H13</f>
+        <v>4.08</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>4.9</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>8</v>
+      <c r="E14" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <f aca="false">AVERAGE(D14:F14)</f>
+        <v>4.83333333333333</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <f aca="false">0.4*G14+0.6*H14</f>
+        <v>4.51333333333333</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">Алексеенко</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Байдин</t>
   </si>
   <si>
@@ -73,13 +76,16 @@
     <t xml:space="preserve">Костенко</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Плавунов</t>
   </si>
   <si>
+    <t xml:space="preserve">0.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Прошина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5</t>
   </si>
   <si>
     <t xml:space="preserve">Рызванова</t>
@@ -98,11 +104,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,89 +128,13 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,54 +143,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -267,23 +156,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -307,57 +181,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -368,54 +191,37 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -427,7 +233,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -443,7 +249,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -472,18 +278,18 @@
   </sheetPr>
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
@@ -551,6 +357,9 @@
       <c r="J2" s="2" t="n">
         <v>4</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
@@ -559,7 +368,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>5</v>
@@ -584,13 +393,16 @@
       <c r="J3" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>5.4</v>
@@ -621,7 +433,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -652,7 +464,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2.9</v>
@@ -683,7 +495,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>3.3</v>
@@ -714,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4.4</v>
@@ -745,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3.2</v>
@@ -770,13 +582,16 @@
       <c r="J9" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K9" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>5.5</v>
@@ -801,16 +616,19 @@
       <c r="J10" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="K10" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -832,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>5</v>
@@ -863,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>3.6</v>
@@ -894,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>4.9</v>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -61,31 +61,37 @@
     <t xml:space="preserve">Гавришин</t>
   </si>
   <si>
+    <t xml:space="preserve">0.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Горячко</t>
   </si>
   <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Громов</t>
   </si>
   <si>
     <t xml:space="preserve">Евдокимов</t>
   </si>
   <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Касимов</t>
   </si>
   <si>
     <t xml:space="preserve">Костенко</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.5</t>
   </si>
   <si>
     <t xml:space="preserve">Плавунов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прошина</t>
   </si>
   <si>
     <t xml:space="preserve">Рызванова</t>
@@ -143,8 +149,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -208,66 +214,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -276,20 +222,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ14"/>
+  <dimension ref="A1:AMJ13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
@@ -404,6 +350,9 @@
       <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="0" t="n">
         <v>5.4</v>
       </c>
@@ -433,7 +382,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -464,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2.9</v>
@@ -495,7 +447,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>3.3</v>
@@ -526,7 +481,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4.4</v>
@@ -557,7 +512,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3.2</v>
@@ -583,15 +541,15 @@
         <v>4</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>5.5</v>
@@ -617,60 +575,66 @@
         <v>5</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="G11" s="2" t="n">
         <f aca="false">AVERAGE(D11:F11)</f>
-        <v>0</v>
+        <v>3.73333333333333</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="2" t="n">
         <f aca="false">0.4*G11+0.6*H11</f>
-        <v>0</v>
+        <v>4.49333333333333</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2" t="n">
         <f aca="false">AVERAGE(D12:F12)</f>
-        <v>3.73333333333333</v>
+        <v>4.2</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2" t="n">
         <f aca="false">0.4*G12+0.6*H12</f>
-        <v>4.49333333333333</v>
+        <v>4.08</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>4</v>
@@ -678,63 +642,35 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G13" s="2" t="n">
         <f aca="false">AVERAGE(D13:F13)</f>
-        <v>4.2</v>
+        <v>4.83333333333333</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I13" s="2" t="n">
         <f aca="false">0.4*G13+0.6*H13</f>
-        <v>4.08</v>
+        <v>4.51333333333333</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <f aca="false">AVERAGE(D14:F14)</f>
-        <v>4.83333333333333</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <f aca="false">0.4*G14+0.6*H14</f>
-        <v>4.51333333333333</v>
-      </c>
-      <c r="J14" s="0" t="n">
         <v>5</v>
       </c>
     </row>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">Алексеенко</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.4</t>
   </si>
   <si>
@@ -61,46 +64,49 @@
     <t xml:space="preserve">Гавришин</t>
   </si>
   <si>
+    <t xml:space="preserve">0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горячко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Громов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евдокимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Касимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костенко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плавунов</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Горячко</t>
+    <t xml:space="preserve">Рызванова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Садыков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чернов</t>
   </si>
   <si>
     <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Громов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Евдокимов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Касимов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Костенко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Плавунов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рызванова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Садыков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чернов</t>
   </si>
 </sst>
 </file>
@@ -225,7 +231,7 @@
   <dimension ref="A1:AMJ13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -279,7 +285,9 @@
       <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0"/>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="0" t="n">
         <v>2</v>
       </c>
@@ -304,7 +312,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -314,7 +322,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>5</v>
@@ -340,7 +348,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -348,10 +356,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>5.4</v>
@@ -382,10 +390,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -416,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2.9</v>
@@ -447,10 +455,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>3.3</v>
@@ -481,7 +489,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4.4</v>
@@ -512,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3.2</v>
@@ -541,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,7 +591,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5</v>
@@ -614,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3.6</v>
@@ -645,10 +653,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>4.9</v>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -61,37 +61,40 @@
     <t xml:space="preserve">Гавришин</t>
   </si>
   <si>
+    <t xml:space="preserve">0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горячко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Громов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евдокимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Касимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костенко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плавунов</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Горячко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Громов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Евдокимов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Касимов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Костенко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Плавунов</t>
   </si>
   <si>
     <t xml:space="preserve">Рызванова</t>
@@ -225,7 +228,7 @@
   <dimension ref="A1:AMJ13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5</v>
@@ -614,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3.6</v>
@@ -645,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>15</v>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -67,10 +67,13 @@
     <t xml:space="preserve">Горячко</t>
   </si>
   <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Громов</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Громов</t>
   </si>
   <si>
     <t xml:space="preserve">Евдокимов</t>
@@ -228,7 +231,7 @@
   <dimension ref="A1:AMJ13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -421,6 +424,9 @@
       <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="0" t="n">
         <v>2.9</v>
       </c>
@@ -450,10 +456,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>3.3</v>
@@ -484,7 +490,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4.4</v>
@@ -515,10 +524,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3.2</v>
@@ -544,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,7 +561,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>5.5</v>
@@ -578,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5</v>
@@ -617,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3.6</v>
@@ -648,10 +660,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>4.9</v>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">Костенко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5</t>
   </si>
   <si>
     <t xml:space="preserve">Плавунов</t>
@@ -231,7 +225,7 @@
   <dimension ref="A1:AMJ13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,9 +520,6 @@
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" s="0" t="n">
         <v>3.2</v>
       </c>
@@ -553,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,7 +552,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>15</v>
@@ -590,7 +581,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5</v>
@@ -629,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3.6</v>
@@ -660,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>17</v>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">Чернов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>4.9</v>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -228,7 +228,7 @@
   <dimension ref="A1:AMJ13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -489,8 +489,8 @@
       <c r="B8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4.4</v>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -52,48 +52,51 @@
     <t xml:space="preserve">Алексеенко</t>
   </si>
   <si>
+    <t xml:space="preserve">0.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.4</t>
   </si>
   <si>
     <t xml:space="preserve">Байдин</t>
   </si>
   <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Гавришин</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8</t>
+    <t xml:space="preserve">0.9</t>
   </si>
   <si>
     <t xml:space="preserve">Горячко</t>
   </si>
   <si>
+    <t xml:space="preserve">0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Громов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евдокимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Касимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костенко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плавунов</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Громов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Евдокимов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Касимов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Костенко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Плавунов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Рызванова</t>
   </si>
   <si>
@@ -101,9 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">Чернов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7</t>
   </si>
 </sst>
 </file>
@@ -228,7 +228,7 @@
   <dimension ref="A1:AMJ13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -282,7 +282,9 @@
       <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0"/>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="0" t="n">
         <v>2</v>
       </c>
@@ -307,7 +309,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -317,7 +319,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>5</v>
@@ -343,7 +348,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,10 +356,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>5.4</v>
@@ -385,10 +390,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -419,10 +424,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2.9</v>
@@ -453,10 +458,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>3.3</v>
@@ -487,7 +492,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -521,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3.2</v>
@@ -547,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,10 +560,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>5.5</v>
@@ -584,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,7 +597,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5</v>
@@ -623,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3.6</v>
@@ -654,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>4.9</v>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Гавришин</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9</t>
+    <t xml:space="preserve">1.4</t>
   </si>
   <si>
     <t xml:space="preserve">Горячко</t>
@@ -228,7 +228,7 @@
   <dimension ref="A1:AMJ13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -73,28 +73,34 @@
     <t xml:space="preserve">Горячко</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7</t>
+    <t xml:space="preserve">0.9</t>
   </si>
   <si>
     <t xml:space="preserve">Громов</t>
   </si>
   <si>
+    <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Евдокимов</t>
   </si>
   <si>
+    <t xml:space="preserve">Касимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костенко</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Касимов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Костенко</t>
-  </si>
-  <si>
     <t xml:space="preserve">Плавунов</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5</t>
+    <t xml:space="preserve">0.8</t>
   </si>
   <si>
     <t xml:space="preserve">Рызванова</t>
@@ -104,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Чернов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
   </si>
 </sst>
 </file>
@@ -228,7 +237,7 @@
   <dimension ref="A1:AMJ13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -427,7 +436,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2.9</v>
@@ -458,10 +467,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>3.3</v>
@@ -494,8 +503,8 @@
       <c r="B8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
+      <c r="C8" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4.4</v>
@@ -526,7 +535,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>3.2</v>
@@ -560,10 +572,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>5.5</v>
@@ -597,10 +609,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>5</v>
@@ -631,7 +643,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3.6</v>
@@ -662,10 +677,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>4.9</v>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -40,22 +40,25 @@
     <t xml:space="preserve">Test_3</t>
   </si>
   <si>
+    <t xml:space="preserve">Zachet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raiting</t>
   </si>
   <si>
-    <t xml:space="preserve">Zachet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Итог</t>
-  </si>
-  <si>
     <t xml:space="preserve">Алексеенко</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4</t>
   </si>
   <si>
     <t xml:space="preserve">Байдин</t>
@@ -234,23 +237,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -264,100 +271,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="0"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <f aca="false">AVERAGE(D2:F2)</f>
-        <v>3.66666666666667</v>
+      <c r="F2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <f aca="false">0.4*G2+0.6*H2</f>
-        <v>4.46666666666667</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
+      <c r="J2" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <f aca="false">AVERAGE(E2:J2)</f>
+        <v>3.7</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <f aca="false">AVERAGE(D3:F3)</f>
-        <v>4.33333333333333</v>
+      <c r="G3" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <f aca="false">0.4*G3+0.6*H3</f>
-        <v>4.13333333333333</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>11</v>
+      <c r="J3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <f aca="false">AVERAGE(E3:J3)</f>
+        <v>4.2</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,32 +375,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>5.4</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <f aca="false">AVERAGE(D4:F4)</f>
-        <v>5.13333333333333</v>
+      <c r="F4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="2" t="n">
-        <f aca="false">0.4*G4+0.6*H4</f>
-        <v>5.05333333333333</v>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <f aca="false">AVERAGE(E4:J4)</f>
+        <v>5.08</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -399,32 +409,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>5</v>
+      <c r="D5" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>4.8</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <f aca="false">AVERAGE(D5:F5)</f>
-        <v>4.93333333333333</v>
-      </c>
       <c r="H5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I5" s="2" t="n">
-        <f aca="false">0.4*G5+0.6*H5</f>
-        <v>4.97333333333333</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">AVERAGE(E5:J5)</f>
+        <v>4.76</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -433,32 +443,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>2.9</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <f aca="false">AVERAGE(D6:F6)</f>
-        <v>3.96666666666667</v>
+      <c r="F6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="I6" s="2" t="n">
-        <f aca="false">0.4*G6+0.6*H6</f>
-        <v>4.28666666666667</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <f aca="false">AVERAGE(E6:J6)</f>
+        <v>3.88</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -467,32 +477,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <f aca="false">AVERAGE(D7:F7)</f>
-        <v>4.1</v>
+      <c r="F7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="I7" s="2" t="n">
-        <f aca="false">0.4*G7+0.6*H7</f>
-        <v>4.34</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <f aca="false">AVERAGE(E7:J7)</f>
+        <v>4.26</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -501,32 +511,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>4.4</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <f aca="false">AVERAGE(D8:F8)</f>
-        <v>4.46666666666667</v>
+      <c r="F8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="2" t="n">
-        <f aca="false">0.4*G8+0.6*H8</f>
-        <v>4.18666666666667</v>
-      </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <f aca="false">AVERAGE(E8:J8)</f>
+        <v>4.48</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -535,36 +545,36 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>3.2</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <f aca="false">AVERAGE(D9:F9)</f>
-        <v>3.73333333333333</v>
+      <c r="F9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="I9" s="2" t="n">
-        <f aca="false">0.4*G9+0.6*H9</f>
-        <v>3.59333333333333</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>11</v>
+      <c r="J9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <f aca="false">AVERAGE(E9:J9)</f>
+        <v>3.74</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,36 +582,36 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="G10" s="1" t="n">
         <v>5.1</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <f aca="false">AVERAGE(D10:F10)</f>
-        <v>5.53333333333333</v>
-      </c>
       <c r="H10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <f aca="false">0.4*G10+0.6*H10</f>
-        <v>5.21333333333334</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>10</v>
+      <c r="J10" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <f aca="false">AVERAGE(E10:J10)</f>
+        <v>5.22</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,32 +619,32 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>3.2</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="G11" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <f aca="false">AVERAGE(D11:F11)</f>
-        <v>3.73333333333333</v>
-      </c>
       <c r="H11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I11" s="2" t="n">
-        <f aca="false">0.4*G11+0.6*H11</f>
-        <v>4.49333333333333</v>
-      </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">AVERAGE(E11:J11)</f>
+        <v>3.84</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -643,32 +653,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <f aca="false">AVERAGE(D12:F12)</f>
-        <v>4.2</v>
+      <c r="F12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I12" s="2" t="n">
-        <f aca="false">0.4*G12+0.6*H12</f>
-        <v>4.08</v>
-      </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <f aca="false">AVERAGE(E12:J12)</f>
+        <v>3.32</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -677,32 +687,32 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <v>4.9</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>4.8</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="G13" s="1" t="n">
         <v>4.8</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <f aca="false">AVERAGE(D13:F13)</f>
-        <v>4.83333333333333</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>4.3</v>
       </c>
-      <c r="I13" s="2" t="n">
-        <f aca="false">0.4*G13+0.6*H13</f>
-        <v>4.51333333333333</v>
-      </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <f aca="false">AVERAGE(E13:J13)</f>
+        <v>4.76</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="0" t="n">
         <v>5</v>
       </c>
     </row>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -55,57 +55,30 @@
     <t xml:space="preserve">Алексеенко</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Байдин</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Гавришин</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Горячко</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Громов</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Евдокимов</t>
   </si>
   <si>
     <t xml:space="preserve">Касимов</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Костенко</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Плавунов</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Рызванова</t>
   </si>
   <si>
@@ -113,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">Чернов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3</t>
   </si>
 </sst>
 </file>
@@ -155,12 +125,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -203,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,7 +192,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,6 +217,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -239,8 +287,8 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,7 +302,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.78"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
@@ -303,12 +351,7 @@
       <c r="B2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
+      <c r="D2" s="0"/>
       <c r="E2" s="0" t="n">
         <v>2</v>
       </c>
@@ -321,15 +364,15 @@
       <c r="H2" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="I2" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="J2" s="1" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2" s="2" t="n">
         <f aca="false">AVERAGE(E2:J2)</f>
-        <v>3.7</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O2" s="0"/>
     </row>
@@ -338,13 +381,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>5</v>
@@ -358,98 +395,89 @@
       <c r="H3" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="I3" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="J3" s="1" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K3" s="2" t="n">
         <f aca="false">AVERAGE(E3:J3)</f>
-        <v>4.2</v>
+        <v>4.11666666666667</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    </row>
+    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2" t="n">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5" t="n">
         <f aca="false">AVERAGE(E4:J4)</f>
-        <v>5.08</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>4.8</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2" t="n">
+      <c r="H5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K5" s="5" t="n">
         <f aca="false">AVERAGE(E5:J5)</f>
-        <v>4.76</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="0" t="n">
-        <v>5</v>
-      </c>
+        <v>4.95</v>
+      </c>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>4</v>
@@ -460,30 +488,27 @@
       <c r="H6" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="I6" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="J6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K6" s="2" t="n">
         <f aca="false">AVERAGE(E6:J6)</f>
-        <v>3.88</v>
+        <v>4.13333333333333</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>5</v>
@@ -494,64 +519,55 @@
       <c r="H7" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="I7" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="J7" s="1" t="n">
         <v>4.5</v>
       </c>
       <c r="K7" s="2" t="n">
         <f aca="false">AVERAGE(E7:J7)</f>
-        <v>4.26</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    </row>
+    <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>4.4</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K8" s="2" t="n">
+      <c r="F8" s="3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5" t="n">
         <f aca="false">AVERAGE(E8:J8)</f>
-        <v>4.48</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="0" t="n">
-        <v>4</v>
-      </c>
+        <v>4.75</v>
+      </c>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>25</v>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3.2</v>
@@ -565,70 +581,61 @@
       <c r="H9" s="0" t="n">
         <v>3.5</v>
       </c>
+      <c r="I9" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="J9" s="1" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K9" s="2" t="n">
         <f aca="false">AVERAGE(E9:J9)</f>
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    </row>
+    <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>5.5</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="4" t="n">
         <v>5.1</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K10" s="2" t="n">
+      <c r="H10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K10" s="5" t="n">
         <f aca="false">AVERAGE(E10:J10)</f>
-        <v>5.22</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="0" t="n">
-        <v>5</v>
-      </c>
+        <v>5.36666666666667</v>
+      </c>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>3</v>
@@ -636,27 +643,24 @@
       <c r="H11" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="I11" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="J11" s="1" t="n">
         <v>3</v>
       </c>
       <c r="K11" s="2" t="n">
         <f aca="false">AVERAGE(E11:J11)</f>
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>3.6</v>
@@ -670,51 +674,48 @@
       <c r="H12" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" s="1" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K12" s="2" t="n">
         <f aca="false">AVERAGE(E12:J12)</f>
-        <v>3.32</v>
+        <v>2.78333333333333</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    </row>
+    <row r="13" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>4.9</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="3" t="n">
         <v>4.8</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="4" t="n">
         <v>4.8</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" s="2" t="n">
+      <c r="H13" s="3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" s="5" t="n">
         <f aca="false">AVERAGE(E13:J13)</f>
-        <v>4.76</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="0" t="n">
-        <v>5</v>
-      </c>
+        <v>5.01666666666667</v>
+      </c>
+      <c r="M13" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/HighProgramming/Рейтинг.xlsx
+++ b/HighProgramming/Рейтинг.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -28,9 +28,6 @@
     <t xml:space="preserve">ФИО</t>
   </si>
   <si>
-    <t xml:space="preserve">Бонус</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test_1</t>
   </si>
   <si>
@@ -52,6 +49,24 @@
     <t xml:space="preserve">Raiting</t>
   </si>
   <si>
+    <t xml:space="preserve">Билет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экзамен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общее</t>
+  </si>
+  <si>
     <t xml:space="preserve">Алексеенко</t>
   </si>
   <si>
@@ -83,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">Садыков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не явился</t>
   </si>
   <si>
     <t xml:space="preserve">Чернов</t>
@@ -285,27 +303,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:AMJ13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,403 +335,632 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>5</v>
+      <c r="D2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>2.6</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>2.6</v>
+        <f aca="false">AVERAGE(C2:H2)</f>
+        <v>3.6</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="K2" s="2" t="n">
-        <f aca="false">AVERAGE(E2:J2)</f>
-        <v>3.6</v>
-      </c>
-      <c r="O2" s="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <f aca="false">AVERAGE(K1:M2)</f>
+        <v>4.5</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">0.4*I2+0.6*N2</f>
+        <v>4.14</v>
+      </c>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>3.7</v>
       </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">AVERAGE(C3:H3)</f>
+        <v>4.11666666666667</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="K3" s="2" t="n">
-        <f aca="false">AVERAGE(E3:J3)</f>
-        <v>4.11666666666667</v>
-      </c>
-      <c r="M3" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">AVERAGE(K2:M3)</f>
+        <v>4.41666666666667</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">0.4*I3+0.6*N3</f>
+        <v>4.29666666666667</v>
+      </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>5.3</v>
       </c>
+      <c r="D4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>5</v>
+      <c r="G4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">AVERAGE(C4:H4)</f>
+        <v>5.05</v>
       </c>
       <c r="K4" s="5" t="n">
-        <f aca="false">AVERAGE(E4:J4)</f>
-        <v>5.05</v>
-      </c>
-      <c r="M4" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">AVERAGE(K3:M4)</f>
+        <v>4.66666666666667</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <f aca="false">0.4*I4+0.6*N4</f>
+        <v>4.82</v>
+      </c>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>4.8</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4" t="n">
+      <c r="G5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>4.9</v>
       </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">AVERAGE(C5:H5)</f>
+        <v>4.95</v>
+      </c>
       <c r="K5" s="5" t="n">
-        <f aca="false">AVERAGE(E5:J5)</f>
-        <v>4.95</v>
-      </c>
-      <c r="M5" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">AVERAGE(K4:M5)</f>
+        <v>5</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <f aca="false">0.4*I5+0.6*N5</f>
+        <v>4.98</v>
+      </c>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>3.3</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="F6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H6" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="n">
+      <c r="G6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">AVERAGE(C6:H6)</f>
+        <v>4.13333333333333</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="K6" s="2" t="n">
-        <f aca="false">AVERAGE(E6:J6)</f>
-        <v>4.13333333333333</v>
-      </c>
-      <c r="M6" s="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">AVERAGE(K5:M6)</f>
+        <v>4.75</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="false">0.4*I6+0.6*N6</f>
+        <v>4.50333333333333</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>3.6</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="F7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1" t="n">
+      <c r="G7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>4.5</v>
       </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">AVERAGE(C7:H7)</f>
+        <v>4.43333333333333</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>24</v>
+      </c>
       <c r="K7" s="2" t="n">
-        <f aca="false">AVERAGE(E7:J7)</f>
-        <v>4.43333333333333</v>
-      </c>
-      <c r="M7" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">AVERAGE(K6:M7)</f>
+        <v>4.41666666666667</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <f aca="false">0.4*I7+0.6*N7</f>
+        <v>4.42333333333333</v>
+      </c>
     </row>
     <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>4.4</v>
       </c>
+      <c r="D8" s="3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="F8" s="3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <f aca="false">AVERAGE(C8:H8)</f>
+        <v>4.75</v>
       </c>
       <c r="K8" s="5" t="n">
-        <f aca="false">AVERAGE(E8:J8)</f>
-        <v>4.75</v>
-      </c>
-      <c r="M8" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">AVERAGE(K7:M8)</f>
+        <v>4.66666666666667</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <f aca="false">0.4*I8+0.6*N8</f>
+        <v>4.7</v>
+      </c>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>3.2</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="F9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" s="1" t="n">
+      <c r="G9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="n">
         <v>3.8</v>
       </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">AVERAGE(C9:H9)</f>
+        <v>3.75</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="K9" s="2" t="n">
-        <f aca="false">AVERAGE(E9:J9)</f>
-        <v>3.75</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">AVERAGE(K8:M9)</f>
+        <v>4.66666666666667</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <f aca="false">0.4*I9+0.6*N9</f>
+        <v>4.3</v>
+      </c>
     </row>
     <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>5.5</v>
       </c>
+      <c r="D10" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>5.1</v>
+      </c>
       <c r="F10" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="n">
         <v>5.6</v>
       </c>
+      <c r="I10" s="5" t="n">
+        <f aca="false">AVERAGE(C10:H10)</f>
+        <v>5.36666666666667</v>
+      </c>
       <c r="K10" s="5" t="n">
-        <f aca="false">AVERAGE(E10:J10)</f>
-        <v>5.36666666666667</v>
-      </c>
-      <c r="M10" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">AVERAGE(K9:M10)</f>
+        <v>4.66666666666667</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="false">0.4*I10+0.6*N10</f>
+        <v>4.94666666666667</v>
+      </c>
+      <c r="AMI10" s="0"/>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>3</v>
+      <c r="I11" s="2" t="n">
+        <f aca="false">AVERAGE(C11:H11)</f>
+        <v>3.9</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="K11" s="2" t="n">
-        <f aca="false">AVERAGE(E11:J11)</f>
-        <v>3.9</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">AVERAGE(K10:M11)</f>
+        <v>4.75</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <f aca="false">0.4*I11+0.6*N11</f>
+        <v>4.41</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>3.6</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="F12" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="H12" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="K12" s="2" t="n">
-        <f aca="false">AVERAGE(E12:J12)</f>
+      <c r="I12" s="2" t="n">
+        <f aca="false">AVERAGE(C12:H12)</f>
         <v>2.78333333333333</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="J12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="N12" s="0" t="n">
+        <f aca="false">AVERAGE(K11:M12)</f>
+        <v>4.5</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <f aca="false">0.4*I12+0.6*N12</f>
+        <v>3.81333333333333</v>
+      </c>
     </row>
     <row r="13" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>4.9</v>
       </c>
+      <c r="D13" s="3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F13" s="3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H13" s="3" t="n">
         <v>5.6</v>
       </c>
-      <c r="I13" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <v>5</v>
+      <c r="G13" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <f aca="false">AVERAGE(C13:H13)</f>
+        <v>5.01666666666667</v>
       </c>
       <c r="K13" s="5" t="n">
-        <f aca="false">AVERAGE(E13:J13)</f>
-        <v>5.01666666666667</v>
-      </c>
-      <c r="M13" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">AVERAGE(K12:M13)</f>
+        <v>5</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <f aca="false">0.4*I13+0.6*N13</f>
+        <v>5.00666666666667</v>
+      </c>
+      <c r="AMI13" s="0"/>
+      <c r="AMJ13" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
